--- a/z topic2.xlsx
+++ b/z topic2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>Belongs to Topic</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Operated by Role</t>
   </si>
   <si>
-    <t>Trained by Employee</t>
-  </si>
-  <si>
     <t>Uses System</t>
   </si>
   <si>
@@ -55,6 +52,12 @@
     <t>Related Document</t>
   </si>
   <si>
+    <t>To Be Signed By</t>
+  </si>
+  <si>
+    <t>Has Signed</t>
+  </si>
+  <si>
     <t>Approved by (filled out by PMO)</t>
   </si>
   <si>
@@ -106,7 +109,7 @@
     <t>Real SOP Writer</t>
   </si>
   <si>
-    <t>DE Counterpart</t>
+    <t>Approver</t>
   </si>
   <si>
     <t>NO Counterpart</t>
@@ -130,7 +133,7 @@
     <t>EB User Development</t>
   </si>
   <si>
-    <t>EB Service Operation (ESO)</t>
+    <t>EB Service Operation</t>
   </si>
   <si>
     <t>EB Network Development</t>
@@ -148,7 +151,7 @@
     <t>COE Purchase</t>
   </si>
   <si>
-    <t>COE Product Experience</t>
+    <t>COE Product Design</t>
   </si>
   <si>
     <t>COE Power Operation</t>
@@ -608,13 +611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,16 +723,19 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37">
       <c r="A2" s="1">
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -753,22 +759,22 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -830,16 +836,19 @@
       <c r="AJ2">
         <v>7</v>
       </c>
+      <c r="AK2">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37">
       <c r="A3" s="1">
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>22</v>
@@ -863,22 +872,22 @@
         <v>21</v>
       </c>
       <c r="K3">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
         <v>22</v>
       </c>
-      <c r="L3">
-        <v>17</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
       <c r="O3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>22</v>
@@ -940,16 +949,19 @@
       <c r="AJ3">
         <v>22</v>
       </c>
+      <c r="AK3">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37">
       <c r="A4" s="1">
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>44</v>
@@ -973,22 +985,22 @@
         <v>18</v>
       </c>
       <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>17</v>
+      </c>
+      <c r="N4">
         <v>44</v>
       </c>
-      <c r="L4">
-        <v>15</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>17</v>
-      </c>
       <c r="O4">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="P4">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>44</v>
@@ -1021,10 +1033,10 @@
         <v>44</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AB4">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>44</v>
@@ -1050,16 +1062,19 @@
       <c r="AJ4">
         <v>44</v>
       </c>
+      <c r="AK4">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37">
       <c r="A5" s="1">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1083,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1092,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -1131,10 +1146,10 @@
         <v>3</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>3</v>
@@ -1160,16 +1175,19 @@
       <c r="AJ5">
         <v>3</v>
       </c>
+      <c r="AK5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:37">
       <c r="A6" s="1">
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -1193,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1202,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>11</v>
@@ -1270,16 +1288,19 @@
       <c r="AJ6">
         <v>11</v>
       </c>
+      <c r="AK6">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:37">
       <c r="A7" s="1">
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -1303,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1312,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -1380,16 +1401,19 @@
       <c r="AJ7">
         <v>4</v>
       </c>
+      <c r="AK7">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:37">
       <c r="A8" s="1">
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -1413,22 +1437,22 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>8</v>
@@ -1490,16 +1514,19 @@
       <c r="AJ8">
         <v>8</v>
       </c>
+      <c r="AK8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:37">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -1523,22 +1550,22 @@
         <v>0</v>
       </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>10</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>10</v>
@@ -1600,16 +1627,19 @@
       <c r="AJ9">
         <v>10</v>
       </c>
+      <c r="AK9">
+        <v>10</v>
+      </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:37">
       <c r="A10" s="1">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1633,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1642,13 +1672,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -1710,16 +1740,19 @@
       <c r="AJ10">
         <v>4</v>
       </c>
+      <c r="AK10">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:37">
       <c r="A11" s="1">
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -1743,22 +1776,22 @@
         <v>0</v>
       </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>6</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -1785,7 +1818,7 @@
         <v>6</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z11">
         <v>6</v>
@@ -1820,16 +1853,19 @@
       <c r="AJ11">
         <v>6</v>
       </c>
+      <c r="AK11">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:37">
       <c r="A12" s="1">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>15</v>
@@ -1853,22 +1889,22 @@
         <v>3</v>
       </c>
       <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
         <v>15</v>
       </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
       <c r="O12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>15</v>
@@ -1889,7 +1925,7 @@
         <v>15</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -1930,16 +1966,19 @@
       <c r="AJ12">
         <v>0</v>
       </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:37">
       <c r="A13" s="1">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -1963,22 +2002,22 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -2040,16 +2079,19 @@
       <c r="AJ13">
         <v>8</v>
       </c>
+      <c r="AK13">
+        <v>8</v>
+      </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:37">
       <c r="A14" s="1">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -2073,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2082,13 +2124,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -2150,16 +2192,19 @@
       <c r="AJ14">
         <v>5</v>
       </c>
+      <c r="AK14">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:37">
       <c r="A15" s="1">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -2183,22 +2228,22 @@
         <v>1</v>
       </c>
       <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>9</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P15">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -2260,16 +2305,19 @@
       <c r="AJ15">
         <v>9</v>
       </c>
+      <c r="AK15">
+        <v>9</v>
+      </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:37">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -2293,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2302,13 +2350,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -2370,16 +2418,19 @@
       <c r="AJ16">
         <v>5</v>
       </c>
+      <c r="AK16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:37">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -2403,22 +2454,22 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>8</v>
@@ -2480,16 +2531,19 @@
       <c r="AJ17">
         <v>8</v>
       </c>
+      <c r="AK17">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:37">
       <c r="A18" s="1">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -2513,22 +2567,22 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -2590,16 +2644,19 @@
       <c r="AJ18">
         <v>5</v>
       </c>
+      <c r="AK18">
+        <v>5</v>
+      </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:37">
       <c r="A19" s="1">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19">
         <v>11</v>
@@ -2623,22 +2680,22 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>11</v>
@@ -2700,16 +2757,19 @@
       <c r="AJ19">
         <v>11</v>
       </c>
+      <c r="AK19">
+        <v>11</v>
+      </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:37">
       <c r="A20" s="1">
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20">
         <v>8</v>
@@ -2733,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2742,14 +2802,14 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O20">
+        <v>8</v>
+      </c>
+      <c r="P20">
         <v>1</v>
       </c>
-      <c r="P20">
-        <v>8</v>
-      </c>
       <c r="Q20">
         <v>8</v>
       </c>
@@ -2810,16 +2870,19 @@
       <c r="AJ20">
         <v>8</v>
       </c>
+      <c r="AK20">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:37">
       <c r="A21" s="1">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -2843,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2852,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -2920,16 +2983,19 @@
       <c r="AJ21">
         <v>5</v>
       </c>
+      <c r="AK21">
+        <v>5</v>
+      </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:37">
       <c r="A22" s="1">
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>7</v>
@@ -2953,22 +3019,22 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -2998,10 +3064,10 @@
         <v>7</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>7</v>
@@ -3030,16 +3096,19 @@
       <c r="AJ22">
         <v>7</v>
       </c>
+      <c r="AK22">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:37">
       <c r="A23" s="1">
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -3063,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3072,13 +3141,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -3108,10 +3177,10 @@
         <v>3</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <v>3</v>
@@ -3140,16 +3209,19 @@
       <c r="AJ23">
         <v>3</v>
       </c>
+      <c r="AK23">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:37">
       <c r="A24" s="1">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -3173,22 +3245,22 @@
         <v>0</v>
       </c>
       <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
         <v>2</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
       <c r="O24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -3218,10 +3290,10 @@
         <v>2</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB24">
         <v>2</v>
@@ -3250,236 +3322,245 @@
       <c r="AJ24">
         <v>2</v>
       </c>
+      <c r="AK24">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:37">
       <c r="A25" s="1">
         <v>5</v>
       </c>
       <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25">
         <v>45</v>
       </c>
-      <c r="C25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25">
-        <v>11</v>
-      </c>
       <c r="E25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="I25">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P25">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="R25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="S25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="T25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="U25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="V25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="W25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="X25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="Y25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AA25">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AC25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AD25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AE25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AF25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AG25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AH25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AI25">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="AJ25">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="AK25">
+        <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:37">
       <c r="A26" s="1">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G26">
         <v>10</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="R26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="S26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="T26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="U26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="V26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="W26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="X26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Y26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AC26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AD26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AF26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AG26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AH26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AI26">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AJ26">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="AK26">
+        <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:37">
       <c r="A27" s="1">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -3503,22 +3584,22 @@
         <v>2</v>
       </c>
       <c r="K27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -3548,10 +3629,10 @@
         <v>7</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA27">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB27">
         <v>7</v>
@@ -3580,16 +3661,19 @@
       <c r="AJ27">
         <v>7</v>
       </c>
+      <c r="AK27">
+        <v>7</v>
+      </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:37">
       <c r="A28" s="1">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>17</v>
@@ -3613,22 +3697,22 @@
         <v>1</v>
       </c>
       <c r="K28">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="L28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <v>1</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P28">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>17</v>
@@ -3658,10 +3742,10 @@
         <v>17</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA28">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>17</v>
@@ -3690,126 +3774,132 @@
       <c r="AJ28">
         <v>17</v>
       </c>
+      <c r="AK28">
+        <v>17</v>
+      </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:37">
       <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29">
         <v>10</v>
       </c>
-      <c r="E29">
+      <c r="H29">
         <v>10</v>
       </c>
-      <c r="F29">
+      <c r="I29">
         <v>10</v>
       </c>
-      <c r="G29">
-        <v>9</v>
-      </c>
-      <c r="H29">
-        <v>9</v>
-      </c>
-      <c r="I29">
-        <v>9</v>
-      </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ29">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="AK29">
+        <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:37">
       <c r="A30" s="1">
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -3833,22 +3923,22 @@
         <v>1</v>
       </c>
       <c r="K30">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -3878,10 +3968,10 @@
         <v>8</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <v>8</v>
@@ -3908,6 +3998,9 @@
         <v>8</v>
       </c>
       <c r="AJ30">
+        <v>8</v>
+      </c>
+      <c r="AK30">
         <v>8</v>
       </c>
     </row>
